--- a/data/original/exercises/020-qualtrics/030-010-030-ex3.xlsx
+++ b/data/original/exercises/020-qualtrics/030-010-030-ex3.xlsx
@@ -1,94 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\git\hub\dissertation\submodules\dissertation-analysis\data\original\exercises\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1818226-3502-45F0-AF85-48C006814A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13875" yWindow="5130" windowWidth="13875" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>id_response</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>progress</t>
-  </si>
-  <si>
-    <t>duration_s</t>
-  </si>
-  <si>
-    <t>finished</t>
-  </si>
-  <si>
-    <t>recorded_date</t>
-  </si>
-  <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>IP Address</t>
-  </si>
-  <si>
-    <t>0hacar</t>
-  </si>
-  <si>
-    <t>ebola %&gt;%
-  pivot_longer(Cases_Guinea:last_col()) %&gt;%
-  separate(name, into = c("case_death", "country"), sep = "_") %&gt;%
-  pivot_wider(names_from = case_death, values_from = value) %&gt;%
-  drop_na()</t>
-  </si>
-  <si>
-    <t>1bunor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebola &lt;- read_csv("data/ebola.csv")
-ebola_long &lt;- ebola %&gt;%
-  pivot_longer(cols = "Cases_Guinea":last_col())%&gt;%
-  separate(col= name,
-           into = c("case_death","country"),
-           sep = "_")%&gt;%
-  drop_na()
-ebola_wide &lt;- ebola_long %&gt;%
-  pivot_wider(names_from = case_death) %&gt;%
-  drop_na()
-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,14 +67,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -191,7 +113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,27 +145,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,24 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,63 +354,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id_response</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>progress</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>duration_s</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>recorded_date</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>q1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>q2</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44518.844722222217</v>
+        <v>44518.84472222222</v>
       </c>
       <c r="C2" s="2">
-        <v>44518.844837962963</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>44518.84483796296</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
       </c>
       <c r="E2">
         <v>100</v>
@@ -536,27 +443,37 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>44518.844849537039</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
+        <v>44518.84484953704</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0hacar</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ebola %&gt;%
+  pivot_longer(Cases_Guinea:last_col()) %&gt;%
+  separate(name, into = c("case_death", "country"), sep = "_") %&gt;%
+  pivot_wider(names_from = case_death, values_from = value) %&gt;%
+  drop_na()</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44518.841932870382</v>
+        <v>44518.84193287038</v>
       </c>
       <c r="C3" s="2">
-        <v>44518.846145833333</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>44518.84614583333</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
       </c>
       <c r="E3">
         <v>100</v>
@@ -568,13 +485,168 @@
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>44518.846145833333</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
+        <v>44518.84614583333</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1bunor</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ebola &lt;- read_csv("data/ebola.csv")
+ebola_long &lt;- ebola %&gt;%
+  pivot_longer(cols = "Cases_Guinea":last_col())%&gt;%
+  separate(col= name,
+           into = c("case_death","country"),
+           sep = "_")%&gt;%
+  drop_na()
+ebola_wide &lt;- ebola_long %&gt;%
+  pivot_wider(names_from = case_death) %&gt;%
+  drop_na()
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44523.83850694445</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44523.8412962963</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>240</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44523.8412962963</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1pogus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44523.83850694445</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44523.84130787037</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>241</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44523.84130787037</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3mihar</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ebola %&gt;% 
+pivot_longer(cols = Cases_Guinea:last_col()) %&gt;% 
+separate(name, into = c("cases_deaths", "country")) %&gt;% 
+pivot_wider(names_from = cases_deaths, values_from = value ) %&gt;% 
+drop_na()</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44518.82953703703</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44518.8296412037</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44523.87967592593</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3kusou</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44523.10024305555</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44523.10046296296</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44523.87975694444</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2nesch</t>
+        </is>
       </c>
     </row>
   </sheetData>
